--- a/results/FinalCalculations5.xlsx
+++ b/results/FinalCalculations5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jofia\github\thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jofia\github\thesis\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA763E6A-6B20-41E5-93F4-B70650D210C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36343E61-798E-4B96-B869-1C0D79A9317E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="530" windowWidth="9320" windowHeight="9360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6040" yWindow="730" windowWidth="9320" windowHeight="9360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegressionCalcs" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="68">
   <si>
     <t>*assuming the regression model used only meters and %s (or standard index)</t>
   </si>
@@ -170,12 +170,6 @@
   </si>
   <si>
     <t>Edge density</t>
-  </si>
-  <si>
-    <t>*tool stopped working</t>
-  </si>
-  <si>
-    <t>**nothing happens when I run it</t>
   </si>
   <si>
     <t>Mean patch size</t>
@@ -727,7 +721,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2005,8 +1999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N982"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="86" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2029,13 +2023,13 @@
         <v>19</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2190,7 +2184,7 @@
         <v>56</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="10"/>
@@ -2237,7 +2231,7 @@
     </row>
     <row r="19" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10">
@@ -2258,7 +2252,7 @@
     </row>
     <row r="20" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="19">
@@ -2293,7 +2287,7 @@
     </row>
     <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="11">
@@ -2352,7 +2346,7 @@
     </row>
     <row r="25" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="8">
@@ -2406,7 +2400,7 @@
         <v>37</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2505,27 +2499,47 @@
       <c r="C39" s="11">
         <v>2.0699999999999998</v>
       </c>
+      <c r="D39" s="11">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="E39" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="F39" s="11">
+        <v>0.19400000000000001</v>
+      </c>
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="18" t="s">
-        <v>44</v>
-      </c>
+      <c r="A40" s="18"/>
       <c r="B40" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C40" s="11">
         <v>18</v>
       </c>
+      <c r="D40" s="11">
+        <v>1.96</v>
+      </c>
+      <c r="E40" s="11">
+        <v>2.0799999999999999E-2</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="18" t="s">
-        <v>45</v>
-      </c>
+      <c r="A41" s="18"/>
       <c r="B41" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C41" s="11">
         <v>23.5</v>
+      </c>
+      <c r="D41" s="11">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E41" s="11">
+        <v>18.7</v>
+      </c>
+      <c r="F41" s="11">
+        <v>30.3</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2535,6 +2549,15 @@
       <c r="C42" s="11">
         <v>55.3</v>
       </c>
+      <c r="D42" s="11">
+        <v>72</v>
+      </c>
+      <c r="E42" s="11">
+        <v>72.3</v>
+      </c>
+      <c r="F42" s="11">
+        <v>77.599999999999994</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="10" t="s">
@@ -2543,11 +2566,20 @@
       <c r="C43" s="11">
         <v>25.6</v>
       </c>
+      <c r="D43" s="11">
+        <v>60.3</v>
+      </c>
+      <c r="E43" s="11">
+        <v>61.6</v>
+      </c>
+      <c r="F43" s="11">
+        <v>63.4</v>
+      </c>
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>25</v>
@@ -2633,7 +2665,7 @@
     <row r="50" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="51" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>25</v>
@@ -2719,7 +2751,7 @@
     <row r="56" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="57" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="11">
@@ -2735,19 +2767,19 @@
         <v>86.4</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B58" s="10"/>
     </row>
     <row r="59" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="60" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>25</v>
@@ -2833,7 +2865,7 @@
     <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="11">
@@ -2854,10 +2886,10 @@
     </row>
     <row r="68" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C68" s="14">
         <v>13.9</v>
@@ -2874,10 +2906,10 @@
     </row>
     <row r="69" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C69" s="11">
         <v>65.5</v>
@@ -2911,10 +2943,10 @@
     </row>
     <row r="72" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C72" s="11">
         <v>8.34</v>
@@ -2931,7 +2963,7 @@
     </row>
     <row r="73" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C73" s="14">
         <v>84</v>
@@ -2948,7 +2980,7 @@
     </row>
     <row r="74" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C74" s="11">
         <v>7.7</v>

--- a/results/FinalCalculations5.xlsx
+++ b/results/FinalCalculations5.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jofia\github\thesis\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36343E61-798E-4B96-B869-1C0D79A9317E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EE4910-0A93-4B25-B860-FB25EEC5DCDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6040" yWindow="730" windowWidth="9320" windowHeight="9360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegressionCalcs" sheetId="1" r:id="rId1"/>
     <sheet name="Metrics-updated" sheetId="4" r:id="rId2"/>
+    <sheet name="25kmMetrics" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="69">
   <si>
     <t>*assuming the regression model used only meters and %s (or standard index)</t>
   </si>
@@ -196,9 +197,6 @@
   </si>
   <si>
     <t>0 (not forested)</t>
-  </si>
-  <si>
-    <t>*not sure why doesn't add to 100</t>
   </si>
   <si>
     <t>1 (forested)</t>
@@ -283,6 +281,12 @@
   </si>
   <si>
     <t>(no lakes; if there were, land cover class 22 = small lakes, 23 = large lakes)-- use vector layer to mosaic into raster layer **actually small lakes are smaller than a pixel so just have 23.</t>
+  </si>
+  <si>
+    <t>R calculations for 25 km metrics for WV-2 site</t>
+  </si>
+  <si>
+    <t>Aggregation index (0 = maximally disaggregated, 100 = maximally aggregated classes)</t>
   </si>
 </sst>
 </file>
@@ -417,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -454,6 +458,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -721,7 +726,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1999,8 +2004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N982"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="86" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="86" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2023,13 +2028,13 @@
         <v>19</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2184,7 +2189,7 @@
         <v>56</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="10"/>
@@ -2231,7 +2236,7 @@
     </row>
     <row r="19" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10">
@@ -2252,7 +2257,7 @@
     </row>
     <row r="20" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="19">
@@ -2287,7 +2292,7 @@
     </row>
     <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="11">
@@ -2346,7 +2351,7 @@
     </row>
     <row r="25" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="8">
@@ -2400,7 +2405,7 @@
         <v>37</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2767,7 +2772,7 @@
         <v>86.4</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2905,11 +2910,8 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="10" t="s">
+      <c r="B69" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>53</v>
       </c>
       <c r="C69" s="11">
         <v>65.5</v>
@@ -2943,10 +2945,10 @@
     </row>
     <row r="72" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B72" s="19" t="s">
         <v>54</v>
-      </c>
-      <c r="B72" s="19" t="s">
-        <v>55</v>
       </c>
       <c r="C72" s="11">
         <v>8.34</v>
@@ -2963,7 +2965,7 @@
     </row>
     <row r="73" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C73" s="14">
         <v>84</v>
@@ -2980,7 +2982,7 @@
     </row>
     <row r="74" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C74" s="11">
         <v>7.7</v>
@@ -3907,4 +3909,238 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78740E4D-FA49-4FCC-BA81-9347B4A41577}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="18.25" style="11" customWidth="1"/>
+    <col min="3" max="3" width="12" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="8.6640625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" s="22" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="C4" s="11">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="D4" s="11">
+        <v>3.98</v>
+      </c>
+      <c r="E4" s="11">
+        <v>76.5</v>
+      </c>
+      <c r="F4" s="11">
+        <v>9.8800000000000008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="11">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="C5" s="11">
+        <v>18</v>
+      </c>
+      <c r="D5" s="11">
+        <v>23.5</v>
+      </c>
+      <c r="E5" s="11">
+        <v>55.3</v>
+      </c>
+      <c r="F5" s="11">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="11">
+        <v>5.17</v>
+      </c>
+      <c r="C6" s="11">
+        <v>11.7</v>
+      </c>
+      <c r="D6" s="11">
+        <v>6.71</v>
+      </c>
+      <c r="E6" s="11">
+        <v>151</v>
+      </c>
+      <c r="F6" s="11">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="11">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1.69</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="E7" s="11">
+        <v>74.8</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0.38800000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="11">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0.78200000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C10" s="22"/>
+    </row>
+    <row r="11" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="11">
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11">
+        <v>0.47599999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="14">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="11">
+        <v>65.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="9"/>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="11">
+        <v>8.34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="9"/>
+      <c r="B20" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="14">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="9"/>
+      <c r="B21" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="11">
+        <v>7.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>